--- a/output/sites/clustering with all nutrients/clust_all_nut_findk_validity_measures_CN.xlsx
+++ b/output/sites/clustering with all nutrients/clust_all_nut_findk_validity_measures_CN.xlsx
@@ -410,25 +410,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.822</v>
+        <v>1.398</v>
       </c>
       <c r="E2" t="n">
-        <v>2.397</v>
+        <v>3.197</v>
       </c>
       <c r="F2" t="n">
-        <v>2.272</v>
+        <v>3.051</v>
       </c>
       <c r="G2" t="n">
-        <v>0.405</v>
+        <v>0.162</v>
       </c>
       <c r="H2" t="n">
-        <v>4.099</v>
+        <v>3.843</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -439,25 +439,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>1.822</v>
+        <v>1.398</v>
       </c>
       <c r="E3" t="n">
-        <v>1.99</v>
+        <v>2.301</v>
       </c>
       <c r="F3" t="n">
-        <v>1.997</v>
+        <v>2.329</v>
       </c>
       <c r="G3" t="n">
-        <v>0.512</v>
+        <v>0.392</v>
       </c>
       <c r="H3" t="n">
-        <v>4.099</v>
+        <v>3.843</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -468,25 +468,25 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.026</v>
+        <v>1.398</v>
       </c>
       <c r="E4" t="n">
-        <v>1.959</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>1.802</v>
+        <v>1.875</v>
       </c>
       <c r="G4" t="n">
-        <v>0.289</v>
+        <v>0.435</v>
       </c>
       <c r="H4" t="n">
-        <v>3.113</v>
+        <v>3.789</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -497,25 +497,25 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>1.026</v>
+        <v>1.398</v>
       </c>
       <c r="E5" t="n">
-        <v>1.836</v>
+        <v>2.301</v>
       </c>
       <c r="F5" t="n">
-        <v>2.031</v>
+        <v>2.329</v>
       </c>
       <c r="G5" t="n">
-        <v>0.341</v>
+        <v>0.316</v>
       </c>
       <c r="H5" t="n">
-        <v>3.251</v>
+        <v>3.843</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -526,25 +526,25 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.822</v>
+        <v>1.678</v>
       </c>
       <c r="E6" t="n">
-        <v>1.99</v>
+        <v>2.138</v>
       </c>
       <c r="F6" t="n">
-        <v>1.997</v>
+        <v>2.472</v>
       </c>
       <c r="G6" t="n">
-        <v>0.465</v>
+        <v>0.482</v>
       </c>
       <c r="H6" t="n">
-        <v>4.099</v>
+        <v>4.357</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -558,22 +558,22 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.223</v>
+        <v>1.398</v>
       </c>
       <c r="E7" t="n">
-        <v>1.834</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1.765</v>
+        <v>1.875</v>
       </c>
       <c r="G7" t="n">
-        <v>0.181</v>
+        <v>0.36</v>
       </c>
       <c r="H7" t="n">
-        <v>3.197</v>
+        <v>3.789</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -587,22 +587,22 @@
         <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>1.026</v>
+        <v>1.08</v>
       </c>
       <c r="E8" t="n">
-        <v>1.836</v>
+        <v>1.988</v>
       </c>
       <c r="F8" t="n">
-        <v>2.031</v>
+        <v>2.134</v>
       </c>
       <c r="G8" t="n">
-        <v>0.169</v>
+        <v>0.213</v>
       </c>
       <c r="H8" t="n">
-        <v>3.251</v>
+        <v>3.559</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -613,25 +613,25 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>1.026</v>
+        <v>1.08</v>
       </c>
       <c r="E9" t="n">
-        <v>1.143</v>
+        <v>1.901</v>
       </c>
       <c r="F9" t="n">
-        <v>1.049</v>
+        <v>1.782</v>
       </c>
       <c r="G9" t="n">
-        <v>0.459</v>
+        <v>0.218</v>
       </c>
       <c r="H9" t="n">
-        <v>2.486</v>
+        <v>2.966</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -642,25 +642,25 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>1.822</v>
+        <v>1.678</v>
       </c>
       <c r="E10" t="n">
-        <v>1.99</v>
+        <v>2.138</v>
       </c>
       <c r="F10" t="n">
-        <v>1.997</v>
+        <v>2.472</v>
       </c>
       <c r="G10" t="n">
-        <v>0.36</v>
+        <v>0.373</v>
       </c>
       <c r="H10" t="n">
-        <v>4.099</v>
+        <v>4.357</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -674,22 +674,22 @@
         <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>1.223</v>
+        <v>1.398</v>
       </c>
       <c r="E11" t="n">
-        <v>1.834</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>1.765</v>
+        <v>1.875</v>
       </c>
       <c r="G11" t="n">
-        <v>0.181</v>
+        <v>0.356</v>
       </c>
       <c r="H11" t="n">
-        <v>3.197</v>
+        <v>3.789</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -700,25 +700,25 @@
         <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.817</v>
+        <v>1.178</v>
       </c>
       <c r="E12" t="n">
-        <v>1.665</v>
+        <v>1.815</v>
       </c>
       <c r="F12" t="n">
-        <v>1.607</v>
+        <v>1.856</v>
       </c>
       <c r="G12" t="n">
-        <v>0.164</v>
+        <v>0.19</v>
       </c>
       <c r="H12" t="n">
-        <v>3.061</v>
+        <v>3.397</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -729,25 +729,25 @@
         <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.817</v>
+        <v>1.08</v>
       </c>
       <c r="E13" t="n">
-        <v>1.145</v>
+        <v>1.469</v>
       </c>
       <c r="F13" t="n">
-        <v>1.062</v>
+        <v>1.501</v>
       </c>
       <c r="G13" t="n">
-        <v>0.411</v>
+        <v>0.309</v>
       </c>
       <c r="H13" t="n">
-        <v>2.919</v>
+        <v>3.133</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -758,25 +758,25 @@
         <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>1.026</v>
+        <v>1.08</v>
       </c>
       <c r="E14" t="n">
-        <v>1.143</v>
+        <v>1.901</v>
       </c>
       <c r="F14" t="n">
-        <v>1.049</v>
+        <v>1.782</v>
       </c>
       <c r="G14" t="n">
-        <v>0.423</v>
+        <v>0.138</v>
       </c>
       <c r="H14" t="n">
-        <v>2.486</v>
+        <v>2.966</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -787,25 +787,25 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>1.822</v>
+        <v>1.678</v>
       </c>
       <c r="E15" t="n">
-        <v>1.99</v>
+        <v>2.138</v>
       </c>
       <c r="F15" t="n">
-        <v>1.997</v>
+        <v>2.472</v>
       </c>
       <c r="G15" t="n">
-        <v>0.36</v>
+        <v>0.373</v>
       </c>
       <c r="H15" t="n">
-        <v>4.099</v>
+        <v>4.357</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -819,22 +819,22 @@
         <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>1.223</v>
+        <v>1.398</v>
       </c>
       <c r="E16" t="n">
-        <v>1.834</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>1.765</v>
+        <v>1.875</v>
       </c>
       <c r="G16" t="n">
-        <v>0.181</v>
+        <v>0.256</v>
       </c>
       <c r="H16" t="n">
-        <v>3.197</v>
+        <v>3.789</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -845,25 +845,25 @@
         <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.817</v>
+        <v>1.178</v>
       </c>
       <c r="E17" t="n">
-        <v>1.665</v>
+        <v>1.815</v>
       </c>
       <c r="F17" t="n">
-        <v>1.607</v>
+        <v>1.856</v>
       </c>
       <c r="G17" t="n">
-        <v>0.164</v>
+        <v>0.173</v>
       </c>
       <c r="H17" t="n">
-        <v>3.061</v>
+        <v>3.397</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -874,25 +874,25 @@
         <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.817</v>
+        <v>1.08</v>
       </c>
       <c r="E18" t="n">
-        <v>1.145</v>
+        <v>1.469</v>
       </c>
       <c r="F18" t="n">
-        <v>1.062</v>
+        <v>1.501</v>
       </c>
       <c r="G18" t="n">
-        <v>0.411</v>
+        <v>0.249</v>
       </c>
       <c r="H18" t="n">
-        <v>2.919</v>
+        <v>3.133</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -903,25 +903,25 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1.026</v>
+        <v>1.376</v>
       </c>
       <c r="E19" t="n">
-        <v>1.143</v>
+        <v>1.827</v>
       </c>
       <c r="F19" t="n">
-        <v>1.049</v>
+        <v>1.827</v>
       </c>
       <c r="G19" t="n">
-        <v>0.423</v>
+        <v>0.124</v>
       </c>
       <c r="H19" t="n">
-        <v>2.486</v>
+        <v>3.301</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -932,25 +932,25 @@
         <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>1.822</v>
+        <v>1.08</v>
       </c>
       <c r="E20" t="n">
-        <v>1.204</v>
+        <v>1.41</v>
       </c>
       <c r="F20" t="n">
-        <v>1.322</v>
+        <v>1.354</v>
       </c>
       <c r="G20" t="n">
-        <v>0.53</v>
+        <v>0.349</v>
       </c>
       <c r="H20" t="n">
-        <v>3.935</v>
+        <v>2.71</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -961,23 +961,25 @@
         <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>2.444</v>
-      </c>
-      <c r="E21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F21"/>
+        <v>1.678</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.138</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.472</v>
+      </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H21" t="n">
-        <v>4.247</v>
+        <v>4.357</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -991,22 +993,22 @@
         <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>1.223</v>
+        <v>1.398</v>
       </c>
       <c r="E22" t="n">
-        <v>1.834</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>1.765</v>
+        <v>1.875</v>
       </c>
       <c r="G22" t="n">
-        <v>0.172</v>
+        <v>0.247</v>
       </c>
       <c r="H22" t="n">
-        <v>3.197</v>
+        <v>3.789</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1020,22 +1022,22 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1.573</v>
+        <v>1.759</v>
       </c>
       <c r="E23" t="n">
-        <v>0.235</v>
+        <v>0.398</v>
       </c>
       <c r="F23" t="n">
-        <v>0.235</v>
+        <v>0.398</v>
       </c>
       <c r="G23" t="n">
-        <v>0.878</v>
+        <v>0.818</v>
       </c>
       <c r="H23" t="n">
-        <v>3.254</v>
+        <v>3.443</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1046,25 +1048,25 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>0.817</v>
+        <v>1.178</v>
       </c>
       <c r="E24" t="n">
-        <v>1.559</v>
+        <v>1.53</v>
       </c>
       <c r="F24" t="n">
-        <v>1.554</v>
+        <v>1.529</v>
       </c>
       <c r="G24" t="n">
-        <v>0.078</v>
+        <v>0.244</v>
       </c>
       <c r="H24" t="n">
-        <v>2.758</v>
+        <v>3.164</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1075,25 +1077,25 @@
         <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>0.817</v>
+        <v>1.08</v>
       </c>
       <c r="E25" t="n">
-        <v>1.145</v>
+        <v>1.469</v>
       </c>
       <c r="F25" t="n">
-        <v>1.062</v>
+        <v>1.501</v>
       </c>
       <c r="G25" t="n">
-        <v>0.403</v>
+        <v>0.236</v>
       </c>
       <c r="H25" t="n">
-        <v>2.919</v>
+        <v>3.133</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1104,25 +1106,25 @@
         <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>1.026</v>
+        <v>1.376</v>
       </c>
       <c r="E26" t="n">
-        <v>1.143</v>
+        <v>1.827</v>
       </c>
       <c r="F26" t="n">
-        <v>1.049</v>
+        <v>1.827</v>
       </c>
       <c r="G26" t="n">
-        <v>0.403</v>
+        <v>0.124</v>
       </c>
       <c r="H26" t="n">
-        <v>2.486</v>
+        <v>3.301</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1133,25 +1135,25 @@
         <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>1.822</v>
+        <v>1.08</v>
       </c>
       <c r="E27" t="n">
-        <v>1.204</v>
+        <v>1.41</v>
       </c>
       <c r="F27" t="n">
-        <v>1.322</v>
+        <v>1.354</v>
       </c>
       <c r="G27" t="n">
-        <v>0.53</v>
+        <v>0.349</v>
       </c>
       <c r="H27" t="n">
-        <v>3.935</v>
+        <v>2.71</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1162,23 +1164,25 @@
         <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>2.444</v>
-      </c>
-      <c r="E28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F28"/>
+        <v>1.678</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.138</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.472</v>
+      </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H28" t="n">
-        <v>4.247</v>
+        <v>4.357</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1202,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3.486</v>
+        <v>4.126</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -1219,19 +1223,19 @@
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>1.573</v>
+        <v>1.759</v>
       </c>
       <c r="E30" t="n">
-        <v>0.235</v>
+        <v>0.398</v>
       </c>
       <c r="F30" t="n">
-        <v>0.235</v>
+        <v>0.398</v>
       </c>
       <c r="G30" t="n">
-        <v>0.878</v>
+        <v>0.818</v>
       </c>
       <c r="H30" t="n">
-        <v>3.254</v>
+        <v>3.443</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -1245,22 +1249,22 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>0.817</v>
+        <v>1.178</v>
       </c>
       <c r="E31" t="n">
-        <v>1.559</v>
+        <v>1.53</v>
       </c>
       <c r="F31" t="n">
-        <v>1.554</v>
+        <v>1.529</v>
       </c>
       <c r="G31" t="n">
-        <v>0.078</v>
+        <v>0.244</v>
       </c>
       <c r="H31" t="n">
-        <v>2.758</v>
+        <v>3.164</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -1274,22 +1278,22 @@
         <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>0.817</v>
+        <v>1.08</v>
       </c>
       <c r="E32" t="n">
-        <v>1.145</v>
+        <v>1.469</v>
       </c>
       <c r="F32" t="n">
-        <v>1.062</v>
+        <v>1.501</v>
       </c>
       <c r="G32" t="n">
-        <v>0.403</v>
+        <v>0.236</v>
       </c>
       <c r="H32" t="n">
-        <v>2.919</v>
+        <v>3.133</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -1303,22 +1307,22 @@
         <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>1.026</v>
+        <v>1.376</v>
       </c>
       <c r="E33" t="n">
-        <v>1.143</v>
+        <v>1.827</v>
       </c>
       <c r="F33" t="n">
-        <v>1.049</v>
+        <v>1.827</v>
       </c>
       <c r="G33" t="n">
-        <v>0.384</v>
+        <v>0.124</v>
       </c>
       <c r="H33" t="n">
-        <v>2.486</v>
+        <v>3.301</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -1332,22 +1336,22 @@
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1.822</v>
+        <v>1.398</v>
       </c>
       <c r="E34" t="n">
-        <v>1.204</v>
+        <v>1.772</v>
       </c>
       <c r="F34" t="n">
-        <v>1.322</v>
+        <v>1.765</v>
       </c>
       <c r="G34" t="n">
-        <v>0.53</v>
+        <v>0.171</v>
       </c>
       <c r="H34" t="n">
-        <v>3.935</v>
+        <v>3.604</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -1361,22 +1365,22 @@
         <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>1.223</v>
+        <v>1.08</v>
       </c>
       <c r="E35" t="n">
-        <v>1.634</v>
+        <v>1.41</v>
       </c>
       <c r="F35" t="n">
-        <v>1.63</v>
+        <v>1.354</v>
       </c>
       <c r="G35" t="n">
-        <v>0.16</v>
+        <v>0.349</v>
       </c>
       <c r="H35" t="n">
-        <v>3.055</v>
+        <v>2.71</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -1390,20 +1394,22 @@
         <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>2.444</v>
-      </c>
-      <c r="E36" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F36"/>
+        <v>1.678</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.138</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.472</v>
+      </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H36" t="n">
-        <v>4.247</v>
+        <v>4.357</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -1430,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>3.486</v>
+        <v>4.126</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -1447,19 +1453,19 @@
         <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>1.573</v>
+        <v>1.759</v>
       </c>
       <c r="E38" t="n">
-        <v>0.235</v>
+        <v>0.398</v>
       </c>
       <c r="F38" t="n">
-        <v>0.235</v>
+        <v>0.398</v>
       </c>
       <c r="G38" t="n">
-        <v>0.878</v>
+        <v>0.818</v>
       </c>
       <c r="H38" t="n">
-        <v>3.254</v>
+        <v>3.443</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -1473,22 +1479,22 @@
         <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>0.817</v>
+        <v>1.178</v>
       </c>
       <c r="E39" t="n">
-        <v>1.559</v>
+        <v>1.53</v>
       </c>
       <c r="F39" t="n">
-        <v>1.554</v>
+        <v>1.529</v>
       </c>
       <c r="G39" t="n">
-        <v>0.078</v>
+        <v>0.244</v>
       </c>
       <c r="H39" t="n">
-        <v>2.758</v>
+        <v>3.164</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -1502,22 +1508,22 @@
         <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>0.817</v>
+        <v>1.08</v>
       </c>
       <c r="E40" t="n">
-        <v>1.145</v>
+        <v>1.469</v>
       </c>
       <c r="F40" t="n">
-        <v>1.062</v>
+        <v>1.501</v>
       </c>
       <c r="G40" t="n">
-        <v>0.403</v>
+        <v>0.236</v>
       </c>
       <c r="H40" t="n">
-        <v>2.919</v>
+        <v>3.133</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -1531,22 +1537,22 @@
         <v>9</v>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>1.026</v>
+        <v>1.376</v>
       </c>
       <c r="E41" t="n">
-        <v>1.143</v>
+        <v>1.827</v>
       </c>
       <c r="F41" t="n">
-        <v>1.049</v>
+        <v>1.827</v>
       </c>
       <c r="G41" t="n">
-        <v>0.306</v>
+        <v>0.019</v>
       </c>
       <c r="H41" t="n">
-        <v>2.486</v>
+        <v>3.301</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -1560,22 +1566,22 @@
         <v>9</v>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1.822</v>
+        <v>1.398</v>
       </c>
       <c r="E42" t="n">
-        <v>1.204</v>
+        <v>1.772</v>
       </c>
       <c r="F42" t="n">
-        <v>1.322</v>
+        <v>1.765</v>
       </c>
       <c r="G42" t="n">
-        <v>0.53</v>
+        <v>0.171</v>
       </c>
       <c r="H42" t="n">
-        <v>3.935</v>
+        <v>3.604</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -1589,22 +1595,22 @@
         <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>1.517</v>
+        <v>1.08</v>
       </c>
       <c r="E43" t="n">
-        <v>1.311</v>
+        <v>1.41</v>
       </c>
       <c r="F43" t="n">
-        <v>1.307</v>
+        <v>1.354</v>
       </c>
       <c r="G43" t="n">
-        <v>0.276</v>
+        <v>0.349</v>
       </c>
       <c r="H43" t="n">
-        <v>3.169</v>
+        <v>2.71</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -1621,19 +1627,19 @@
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>1.223</v>
+        <v>1.678</v>
       </c>
       <c r="E44" t="n">
-        <v>1.428</v>
+        <v>1.131</v>
       </c>
       <c r="F44" t="n">
-        <v>1.428</v>
+        <v>1.131</v>
       </c>
       <c r="G44" t="n">
-        <v>0.191</v>
+        <v>0.539</v>
       </c>
       <c r="H44" t="n">
-        <v>2.476</v>
+        <v>4.213</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -1650,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>2.444</v>
+        <v>2.472</v>
       </c>
       <c r="E45" t="e">
         <v>#NUM!</v>
@@ -1660,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>4.247</v>
+        <v>4.371</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -1687,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>3.486</v>
+        <v>4.126</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -1704,19 +1710,19 @@
         <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>1.573</v>
+        <v>1.759</v>
       </c>
       <c r="E47" t="n">
-        <v>0.235</v>
+        <v>0.398</v>
       </c>
       <c r="F47" t="n">
-        <v>0.235</v>
+        <v>0.398</v>
       </c>
       <c r="G47" t="n">
-        <v>0.878</v>
+        <v>0.818</v>
       </c>
       <c r="H47" t="n">
-        <v>3.254</v>
+        <v>3.443</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -1730,22 +1736,22 @@
         <v>9</v>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>0.817</v>
+        <v>1.178</v>
       </c>
       <c r="E48" t="n">
-        <v>1.559</v>
+        <v>1.53</v>
       </c>
       <c r="F48" t="n">
-        <v>1.554</v>
+        <v>1.529</v>
       </c>
       <c r="G48" t="n">
-        <v>0.078</v>
+        <v>0.244</v>
       </c>
       <c r="H48" t="n">
-        <v>2.758</v>
+        <v>3.164</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -1759,22 +1765,22 @@
         <v>9</v>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>0.817</v>
+        <v>1.08</v>
       </c>
       <c r="E49" t="n">
-        <v>1.145</v>
+        <v>1.469</v>
       </c>
       <c r="F49" t="n">
-        <v>1.062</v>
+        <v>1.501</v>
       </c>
       <c r="G49" t="n">
-        <v>0.403</v>
+        <v>0.236</v>
       </c>
       <c r="H49" t="n">
-        <v>2.919</v>
+        <v>3.133</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -1788,22 +1794,22 @@
         <v>9</v>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>1.026</v>
+        <v>1.376</v>
       </c>
       <c r="E50" t="n">
-        <v>1.143</v>
+        <v>1.827</v>
       </c>
       <c r="F50" t="n">
-        <v>1.049</v>
+        <v>1.827</v>
       </c>
       <c r="G50" t="n">
-        <v>0.306</v>
+        <v>0.019</v>
       </c>
       <c r="H50" t="n">
-        <v>2.486</v>
+        <v>3.301</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -1817,22 +1823,22 @@
         <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>1.822</v>
+        <v>1.71</v>
       </c>
       <c r="E51" t="n">
-        <v>1.204</v>
+        <v>1.464</v>
       </c>
       <c r="F51" t="n">
-        <v>1.322</v>
+        <v>1.42</v>
       </c>
       <c r="G51" t="n">
-        <v>0.53</v>
+        <v>0.231</v>
       </c>
       <c r="H51" t="n">
-        <v>3.935</v>
+        <v>3.748</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -1846,20 +1852,22 @@
         <v>9</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="E52" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F52"/>
+        <v>1.08</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.354</v>
+      </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>0.316</v>
       </c>
       <c r="H52" t="n">
-        <v>3.006</v>
+        <v>2.71</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -1873,22 +1881,22 @@
         <v>9</v>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>1.47</v>
+        <v>1.678</v>
       </c>
       <c r="E53" t="n">
-        <v>0.807</v>
+        <v>1.131</v>
       </c>
       <c r="F53" t="n">
-        <v>0.922</v>
+        <v>1.131</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>0.539</v>
       </c>
       <c r="H53" t="n">
-        <v>3.115</v>
+        <v>4.213</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -1905,19 +1913,19 @@
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>1.223</v>
+        <v>1.398</v>
       </c>
       <c r="E54" t="n">
-        <v>1.428</v>
+        <v>1.392</v>
       </c>
       <c r="F54" t="n">
-        <v>1.428</v>
+        <v>1.392</v>
       </c>
       <c r="G54" t="n">
-        <v>0.144</v>
+        <v>0.281</v>
       </c>
       <c r="H54" t="n">
-        <v>2.476</v>
+        <v>2.843</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -1934,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>2.444</v>
+        <v>2.472</v>
       </c>
       <c r="E55" t="e">
         <v>#NUM!</v>
@@ -1944,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>4.247</v>
+        <v>4.371</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
